--- a/biology/Zoologie/Grimpereau_brun/Grimpereau_brun.xlsx
+++ b/biology/Zoologie/Grimpereau_brun/Grimpereau_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Certhia americana
 Le Grimpereau brun (Certhia americana) est une espèce de passereaux de la famille des Certhiidés.
@@ -512,7 +524,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite dans les forêts de feuillus ou de conifères de la zone néarctique (Amérique du Nord).
 </t>
@@ -543,7 +557,9 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une longueur de 13 à 15 cm, il se caractérise par un bec mince et recourbé, une tête et un dos brun tacheté, des sourcils blancs, un ventre blanc et une queue raide sur laquelle il s'appuie.
 </t>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Monte ou descend en tournant en spirale autour du tronc. Il est toutefois difficile à observer se confondant avec l'écorce de l'arbre.
 Chant : Sii-ti-oui tou-oui ou si-si-si-sisi-si faible et aigu.
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond de 5 à 6 œufs tachetés dans un nid situé entre l'écorce et le bois d'un chicot. La couvaison effectuée par la femelle est de 14 à 17 jours.
 </t>
@@ -637,7 +657,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des 15 sous-espèces suivantes :
 Certhia americana alascensis J.D. Webster 1986 ;
